--- a/dados_orcameto.xlsx
+++ b/dados_orcameto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44581098807\Desktop\WebScraping (Treino)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F4CB9-EDC1-48B7-B73F-D1277B1E6C15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA976DB1-5A10-4AD4-B613-1EE4CE219BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,6 +1181,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
